--- a/2024/2024-FLL-Qualifier-Tournaments.xlsx
+++ b/2024/2024-FLL-Qualifier-Tournaments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github-projects\OJS_Script_maker_NG\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC80807-95B0-4A55-BB0D-530211C8A387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33FB7F7-6919-4047-81B1-09979C6523FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{0852510A-0402-494B-87EA-4B91755641F1}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2056" uniqueCount="986">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2052" uniqueCount="989">
   <si>
     <t>Volunteer</t>
   </si>
@@ -2900,9 +2900,6 @@
     <t>ADV</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>2024-vadc-fll-challenge-submerged-newport_news-ojs-div1.xlsm</t>
   </si>
   <si>
@@ -2997,6 +2994,18 @@
   </si>
   <si>
     <t>2024-vadc-fll-challenge-submerged-stated2-ojs-div2.xlsm</t>
+  </si>
+  <si>
+    <t>Newport_News</t>
+  </si>
+  <si>
+    <t>Glen_Allen</t>
+  </si>
+  <si>
+    <t>Manassas_1</t>
+  </si>
+  <si>
+    <t>Manassas_2</t>
   </si>
 </sst>
 </file>
@@ -4568,7 +4577,7 @@
       </c>
       <c r="B9" s="1">
         <f>SUMIFS(Assignments[Mem],Assignments[Tournament],B1)</f>
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="C9" s="1">
         <f>SUMIFS(Assignments[Mem],Assignments[Tournament],C1)</f>
@@ -4576,7 +4585,7 @@
       </c>
       <c r="D9" s="1">
         <f>SUMIFS(Assignments[Mem],Assignments[Tournament],D1)</f>
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
         <f>SUMIFS(Assignments[Mem],Assignments[Tournament],E1)</f>
@@ -4600,7 +4609,7 @@
       </c>
       <c r="J9" s="1">
         <f>SUMIFS(Assignments[Mem],Assignments[Tournament],J1)</f>
-        <v>216</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
         <f>SUMIFS(Assignments[Mem],Assignments[Tournament],K1)</f>
@@ -4608,7 +4617,7 @@
       </c>
       <c r="L9" s="1">
         <f>SUMIFS(Assignments[Mem],Assignments[Tournament],L1)</f>
-        <v>173</v>
+        <v>0</v>
       </c>
       <c r="M9" s="1">
         <f>SUMIFS(Assignments[Mem],Assignments[Tournament],M1)</f>
@@ -4644,7 +4653,7 @@
   <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4794,7 +4803,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>2</v>
+        <v>985</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>33</v>
@@ -4803,10 +4812,10 @@
         <v>45605</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -4841,10 +4850,10 @@
         <v>45605</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
@@ -4870,7 +4879,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>986</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>35</v>
@@ -4879,10 +4888,10 @@
         <v>45605</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
@@ -4917,10 +4926,10 @@
         <v>45605</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
@@ -4955,10 +4964,10 @@
         <v>45612</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
@@ -4993,10 +5002,10 @@
         <v>45612</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
@@ -5031,10 +5040,10 @@
         <v>45612</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
@@ -5069,10 +5078,10 @@
         <v>45612</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="F15" s="1">
         <v>1</v>
@@ -5098,7 +5107,7 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>10</v>
+        <v>987</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>41</v>
@@ -5107,11 +5116,9 @@
         <v>45612</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>962</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>953</v>
-      </c>
+        <v>961</v>
+      </c>
+      <c r="E16" s="1"/>
       <c r="F16" s="1">
         <v>1</v>
       </c>
@@ -5145,10 +5152,10 @@
         <v>45612</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F17" s="1">
         <v>1</v>
@@ -5174,7 +5181,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>12</v>
+        <v>988</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>43</v>
@@ -5183,11 +5190,9 @@
         <v>45613</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>964</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>953</v>
-      </c>
+        <v>963</v>
+      </c>
+      <c r="E18" s="1"/>
       <c r="F18" s="1">
         <v>1</v>
       </c>
@@ -5221,10 +5226,10 @@
         <v>45613</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F19" s="1">
         <v>1</v>
@@ -5259,10 +5264,10 @@
         <v>45619</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="F20" s="1">
         <v>1</v>
@@ -5297,10 +5302,10 @@
         <v>45619</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="F21" s="1">
         <v>1</v>
@@ -5335,10 +5340,10 @@
         <v>45620</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="F22" s="1">
         <v>1</v>
@@ -5373,10 +5378,10 @@
         <v>45620</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="F23" s="1">
         <v>1</v>
@@ -5411,11 +5416,9 @@
         <v>45633</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>970</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>953</v>
-      </c>
+        <v>969</v>
+      </c>
+      <c r="E24" s="1"/>
       <c r="F24" s="1">
         <v>1</v>
       </c>
@@ -5448,11 +5451,9 @@
       <c r="C25" s="3">
         <v>45634</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>953</v>
-      </c>
+      <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="F25" s="1">
         <v>1</v>
@@ -5489,7 +5490,7 @@
   <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R36" sqref="R36"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5561,7 +5562,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>985</v>
       </c>
       <c r="B2" t="s">
         <v>929</v>
@@ -5673,7 +5674,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>986</v>
       </c>
       <c r="B4" t="s">
         <v>929</v>
@@ -6009,7 +6010,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>987</v>
       </c>
       <c r="B10" t="s">
         <v>929</v>
@@ -6121,7 +6122,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>988</v>
       </c>
       <c r="B12" t="s">
         <v>929</v>
@@ -6569,7 +6570,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>2</v>
+        <v>985</v>
       </c>
       <c r="B20" t="s">
         <v>930</v>
@@ -6681,7 +6682,7 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>986</v>
       </c>
       <c r="B22" t="s">
         <v>930</v>
@@ -7017,7 +7018,7 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>987</v>
       </c>
       <c r="B28" t="s">
         <v>930</v>
@@ -7129,7 +7130,7 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>12</v>
+        <v>988</v>
       </c>
       <c r="B30" t="s">
         <v>930</v>
@@ -7599,9 +7600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F76FCFD-7913-48E7-8A1D-892F3A9B6B36}">
   <dimension ref="A1:H386"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7642,7 +7641,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>985</v>
       </c>
       <c r="B2">
         <v>37683</v>
@@ -7665,7 +7664,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>985</v>
       </c>
       <c r="B3">
         <v>38242</v>
@@ -7688,7 +7687,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>985</v>
       </c>
       <c r="B4">
         <v>51652</v>
@@ -7711,7 +7710,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>985</v>
       </c>
       <c r="B5">
         <v>53446</v>
@@ -7734,7 +7733,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>985</v>
       </c>
       <c r="B6">
         <v>53450</v>
@@ -7757,7 +7756,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>985</v>
       </c>
       <c r="B7">
         <v>57671</v>
@@ -7780,7 +7779,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>985</v>
       </c>
       <c r="B8">
         <v>60911</v>
@@ -7800,7 +7799,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>985</v>
       </c>
       <c r="B9">
         <v>65409</v>
@@ -7823,7 +7822,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>985</v>
       </c>
       <c r="B10">
         <v>65410</v>
@@ -7846,7 +7845,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>985</v>
       </c>
       <c r="B11">
         <v>66989</v>
@@ -7869,7 +7868,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>985</v>
       </c>
       <c r="B12">
         <v>68507</v>
@@ -7892,7 +7891,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>986</v>
       </c>
       <c r="B13">
         <v>1840</v>
@@ -7915,7 +7914,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>986</v>
       </c>
       <c r="B14">
         <v>31916</v>
@@ -7935,7 +7934,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>986</v>
       </c>
       <c r="B15">
         <v>59940</v>
@@ -7958,7 +7957,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>986</v>
       </c>
       <c r="B16">
         <v>63325</v>
@@ -7981,7 +7980,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>986</v>
       </c>
       <c r="B17">
         <v>68180</v>
@@ -9363,7 +9362,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>10</v>
+        <v>987</v>
       </c>
       <c r="B78">
         <v>2392</v>
@@ -9386,7 +9385,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>10</v>
+        <v>987</v>
       </c>
       <c r="B79">
         <v>6794</v>
@@ -9409,7 +9408,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>10</v>
+        <v>987</v>
       </c>
       <c r="B80">
         <v>8785</v>
@@ -9432,7 +9431,7 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>10</v>
+        <v>987</v>
       </c>
       <c r="B81">
         <v>10321</v>
@@ -9455,7 +9454,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>10</v>
+        <v>987</v>
       </c>
       <c r="B82">
         <v>10587</v>
@@ -9475,7 +9474,7 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>10</v>
+        <v>987</v>
       </c>
       <c r="B83">
         <v>12734</v>
@@ -9498,7 +9497,7 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>10</v>
+        <v>987</v>
       </c>
       <c r="B84">
         <v>18589</v>
@@ -9521,7 +9520,7 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>10</v>
+        <v>987</v>
       </c>
       <c r="B85">
         <v>20349</v>
@@ -9544,7 +9543,7 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>10</v>
+        <v>987</v>
       </c>
       <c r="B86">
         <v>27239</v>
@@ -9567,7 +9566,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>10</v>
+        <v>987</v>
       </c>
       <c r="B87">
         <v>31289</v>
@@ -9590,7 +9589,7 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>10</v>
+        <v>987</v>
       </c>
       <c r="B88">
         <v>35580</v>
@@ -9613,7 +9612,7 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>10</v>
+        <v>987</v>
       </c>
       <c r="B89">
         <v>37711</v>
@@ -9636,7 +9635,7 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>10</v>
+        <v>987</v>
       </c>
       <c r="B90">
         <v>39343</v>
@@ -9659,7 +9658,7 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>10</v>
+        <v>987</v>
       </c>
       <c r="B91">
         <v>47438</v>
@@ -9682,7 +9681,7 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>10</v>
+        <v>987</v>
       </c>
       <c r="B92">
         <v>49078</v>
@@ -9705,7 +9704,7 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>10</v>
+        <v>987</v>
       </c>
       <c r="B93">
         <v>51919</v>
@@ -9728,7 +9727,7 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>10</v>
+        <v>987</v>
       </c>
       <c r="B94">
         <v>53752</v>
@@ -9751,7 +9750,7 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>10</v>
+        <v>987</v>
       </c>
       <c r="B95">
         <v>53753</v>
@@ -9774,7 +9773,7 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>10</v>
+        <v>987</v>
       </c>
       <c r="B96">
         <v>53754</v>
@@ -9797,7 +9796,7 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>10</v>
+        <v>987</v>
       </c>
       <c r="B97">
         <v>53755</v>
@@ -9820,7 +9819,7 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>10</v>
+        <v>987</v>
       </c>
       <c r="B98">
         <v>60140</v>
@@ -9843,7 +9842,7 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>10</v>
+        <v>987</v>
       </c>
       <c r="B99">
         <v>60906</v>
@@ -9866,7 +9865,7 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>10</v>
+        <v>987</v>
       </c>
       <c r="B100">
         <v>60907</v>
@@ -9889,7 +9888,7 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>10</v>
+        <v>987</v>
       </c>
       <c r="B101">
         <v>61461</v>
@@ -9912,7 +9911,7 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>10</v>
+        <v>987</v>
       </c>
       <c r="B102">
         <v>61474</v>
@@ -9935,7 +9934,7 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>10</v>
+        <v>987</v>
       </c>
       <c r="B103">
         <v>62726</v>
@@ -9958,7 +9957,7 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>10</v>
+        <v>987</v>
       </c>
       <c r="B104">
         <v>63069</v>
@@ -9981,7 +9980,7 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>10</v>
+        <v>987</v>
       </c>
       <c r="B105">
         <v>64893</v>
@@ -10004,7 +10003,7 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>10</v>
+        <v>987</v>
       </c>
       <c r="B106">
         <v>65304</v>
@@ -10027,7 +10026,7 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>10</v>
+        <v>987</v>
       </c>
       <c r="B107">
         <v>69306</v>
@@ -10050,7 +10049,7 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>12</v>
+        <v>988</v>
       </c>
       <c r="B108">
         <v>954</v>
@@ -10073,7 +10072,7 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>12</v>
+        <v>988</v>
       </c>
       <c r="B109">
         <v>4421</v>
@@ -10096,7 +10095,7 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>12</v>
+        <v>988</v>
       </c>
       <c r="B110">
         <v>8503</v>
@@ -10119,7 +10118,7 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>12</v>
+        <v>988</v>
       </c>
       <c r="B111">
         <v>9251</v>
@@ -10142,7 +10141,7 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>12</v>
+        <v>988</v>
       </c>
       <c r="B112">
         <v>9978</v>
@@ -10165,7 +10164,7 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>12</v>
+        <v>988</v>
       </c>
       <c r="B113">
         <v>10157</v>
@@ -10188,7 +10187,7 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>12</v>
+        <v>988</v>
       </c>
       <c r="B114">
         <v>10159</v>
@@ -10211,7 +10210,7 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>12</v>
+        <v>988</v>
       </c>
       <c r="B115">
         <v>10957</v>
@@ -10234,7 +10233,7 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>12</v>
+        <v>988</v>
       </c>
       <c r="B116">
         <v>19992</v>
@@ -10257,7 +10256,7 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>12</v>
+        <v>988</v>
       </c>
       <c r="B117">
         <v>24317</v>
@@ -10280,7 +10279,7 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>12</v>
+        <v>988</v>
       </c>
       <c r="B118">
         <v>35481</v>
@@ -10303,7 +10302,7 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>12</v>
+        <v>988</v>
       </c>
       <c r="B119">
         <v>42657</v>
@@ -10326,7 +10325,7 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>12</v>
+        <v>988</v>
       </c>
       <c r="B120">
         <v>47296</v>
@@ -10349,7 +10348,7 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>12</v>
+        <v>988</v>
       </c>
       <c r="B121">
         <v>48342</v>
@@ -10372,7 +10371,7 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>12</v>
+        <v>988</v>
       </c>
       <c r="B122">
         <v>48747</v>
@@ -10395,7 +10394,7 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>12</v>
+        <v>988</v>
       </c>
       <c r="B123">
         <v>54339</v>
@@ -10418,7 +10417,7 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>12</v>
+        <v>988</v>
       </c>
       <c r="B124">
         <v>54416</v>
@@ -10441,7 +10440,7 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>12</v>
+        <v>988</v>
       </c>
       <c r="B125">
         <v>58854</v>
@@ -10464,7 +10463,7 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>12</v>
+        <v>988</v>
       </c>
       <c r="B126">
         <v>60205</v>
@@ -10487,7 +10486,7 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>12</v>
+        <v>988</v>
       </c>
       <c r="B127">
         <v>60272</v>
@@ -10510,7 +10509,7 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>12</v>
+        <v>988</v>
       </c>
       <c r="B128">
         <v>64960</v>
@@ -10533,7 +10532,7 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>12</v>
+        <v>988</v>
       </c>
       <c r="B129">
         <v>64965</v>
@@ -10556,7 +10555,7 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>12</v>
+        <v>988</v>
       </c>
       <c r="B130">
         <v>68869</v>
@@ -10576,7 +10575,7 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>12</v>
+        <v>988</v>
       </c>
       <c r="B131">
         <v>69117</v>
@@ -11776,7 +11775,7 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>2</v>
+        <v>985</v>
       </c>
       <c r="B185">
         <v>6348</v>
@@ -11799,7 +11798,7 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>2</v>
+        <v>985</v>
       </c>
       <c r="B186">
         <v>35054</v>
@@ -11822,7 +11821,7 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>2</v>
+        <v>985</v>
       </c>
       <c r="B187">
         <v>38238</v>
@@ -11845,7 +11844,7 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>2</v>
+        <v>985</v>
       </c>
       <c r="B188">
         <v>47030</v>
@@ -11868,7 +11867,7 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>2</v>
+        <v>985</v>
       </c>
       <c r="B189">
         <v>52367</v>
@@ -11891,7 +11890,7 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>2</v>
+        <v>985</v>
       </c>
       <c r="B190">
         <v>57675</v>
@@ -11911,7 +11910,7 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>2</v>
+        <v>985</v>
       </c>
       <c r="B191">
         <v>58638</v>
@@ -11934,7 +11933,7 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>2</v>
+        <v>985</v>
       </c>
       <c r="B192">
         <v>60463</v>
@@ -11957,7 +11956,7 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>2</v>
+        <v>985</v>
       </c>
       <c r="B193">
         <v>60679</v>
@@ -11980,7 +11979,7 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>2</v>
+        <v>985</v>
       </c>
       <c r="B194">
         <v>61072</v>
@@ -12003,7 +12002,7 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>2</v>
+        <v>985</v>
       </c>
       <c r="B195">
         <v>67160</v>
@@ -12026,7 +12025,7 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>4</v>
+        <v>986</v>
       </c>
       <c r="B196">
         <v>27850</v>
@@ -12049,7 +12048,7 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>4</v>
+        <v>986</v>
       </c>
       <c r="B197">
         <v>27851</v>
@@ -12072,7 +12071,7 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>4</v>
+        <v>986</v>
       </c>
       <c r="B198">
         <v>48466</v>
@@ -12095,7 +12094,7 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>4</v>
+        <v>986</v>
       </c>
       <c r="B199">
         <v>52087</v>
@@ -12118,7 +12117,7 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>4</v>
+        <v>986</v>
       </c>
       <c r="B200">
         <v>54506</v>
@@ -12141,7 +12140,7 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>4</v>
+        <v>986</v>
       </c>
       <c r="B201">
         <v>55751</v>
@@ -12164,7 +12163,7 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>4</v>
+        <v>986</v>
       </c>
       <c r="B202">
         <v>56130</v>
@@ -12184,7 +12183,7 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>4</v>
+        <v>986</v>
       </c>
       <c r="B203">
         <v>60386</v>
@@ -12204,7 +12203,7 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>4</v>
+        <v>986</v>
       </c>
       <c r="B204">
         <v>63323</v>
@@ -12227,7 +12226,7 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>4</v>
+        <v>986</v>
       </c>
       <c r="B205">
         <v>63324</v>
@@ -12250,7 +12249,7 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>4</v>
+        <v>986</v>
       </c>
       <c r="B206">
         <v>63326</v>
@@ -12273,7 +12272,7 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>4</v>
+        <v>986</v>
       </c>
       <c r="B207">
         <v>64912</v>
@@ -12296,7 +12295,7 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>4</v>
+        <v>986</v>
       </c>
       <c r="B208">
         <v>65937</v>
@@ -12319,7 +12318,7 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>4</v>
+        <v>986</v>
       </c>
       <c r="B209">
         <v>66016</v>
@@ -12342,7 +12341,7 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>4</v>
+        <v>986</v>
       </c>
       <c r="B210">
         <v>66242</v>
@@ -12365,7 +12364,7 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>4</v>
+        <v>986</v>
       </c>
       <c r="B211">
         <v>66409</v>
@@ -12385,7 +12384,7 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>4</v>
+        <v>986</v>
       </c>
       <c r="B212">
         <v>69263</v>

--- a/2024/2024-FLL-Qualifier-Tournaments.xlsx
+++ b/2024/2024-FLL-Qualifier-Tournaments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github-projects\OJS_Script_maker_NG\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33FB7F7-6919-4047-81B1-09979C6523FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F304DD68-7C9D-4020-85C8-4D577ACBAD27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{0852510A-0402-494B-87EA-4B91755641F1}"/>
   </bookViews>
@@ -2900,102 +2900,6 @@
     <t>ADV</t>
   </si>
   <si>
-    <t>2024-vadc-fll-challenge-submerged-newport_news-ojs-div1.xlsm</t>
-  </si>
-  <si>
-    <t>2024-vadc-fll-challenge-submerged-henrico-ojs-div1.xlsm</t>
-  </si>
-  <si>
-    <t>2024-vadc-fll-challenge-submerged-glen_allen-ojs-div1.xlsm</t>
-  </si>
-  <si>
-    <t>2024-vadc-fll-challenge-submerged-martinsville-ojs-div1.xlsm</t>
-  </si>
-  <si>
-    <t>2024-vadc-fll-challenge-submerged-norfolk-ojs-div1.xlsm</t>
-  </si>
-  <si>
-    <t>2024-vadc-fll-challenge-submerged-blacksburg-ojs-div1.xlsm</t>
-  </si>
-  <si>
-    <t>2024-vadc-fll-challenge-submerged-abingdon-ojs-div1.xlsm</t>
-  </si>
-  <si>
-    <t>2024-vadc-fll-challenge-submerged-charlottesville-ojs-div1.xlsm</t>
-  </si>
-  <si>
-    <t>2024-vadc-fll-challenge-submerged-manassas_1-ojs-div1.xlsm</t>
-  </si>
-  <si>
-    <t>2024-vadc-fll-challenge-submerged-fairfax-ojs-div1.xlsm</t>
-  </si>
-  <si>
-    <t>2024-vadc-fll-challenge-submerged-manassas_2-ojs-div1.xlsm</t>
-  </si>
-  <si>
-    <t>2024-vadc-fll-challenge-submerged-richmond-ojs-div1.xlsm</t>
-  </si>
-  <si>
-    <t>2024-vadc-fll-challenge-submerged-dc-mckinley-ojs-div1.xlsm</t>
-  </si>
-  <si>
-    <t>2024-vadc-fll-challenge-submerged-dc-friendship-ojs-div1.xlsm</t>
-  </si>
-  <si>
-    <t>2024-vadc-fll-challenge-submerged-ashburn-ojs-div1.xlsm</t>
-  </si>
-  <si>
-    <t>2024-vadc-fll-challenge-submerged-alexandria-ojs-div1.xlsm</t>
-  </si>
-  <si>
-    <t>2024-vadc-fll-challenge-submerged-stated1-ojs-div1.xlsm</t>
-  </si>
-  <si>
-    <t>2024-vadc-fll-challenge-submerged-newport_news-ojs-div2.xlsm</t>
-  </si>
-  <si>
-    <t>2024-vadc-fll-challenge-submerged-henrico-ojs-div2.xlsm</t>
-  </si>
-  <si>
-    <t>2024-vadc-fll-challenge-submerged-glen_allen-ojs-div2.xlsm</t>
-  </si>
-  <si>
-    <t>2024-vadc-fll-challenge-submerged-martinsville-ojs-div2.xlsm</t>
-  </si>
-  <si>
-    <t>2024-vadc-fll-challenge-submerged-norfolk-ojs-div2.xlsm</t>
-  </si>
-  <si>
-    <t>2024-vadc-fll-challenge-submerged-blacksburg-ojs-div2.xlsm</t>
-  </si>
-  <si>
-    <t>2024-vadc-fll-challenge-submerged-abingdon-ojs-div2.xlsm</t>
-  </si>
-  <si>
-    <t>2024-vadc-fll-challenge-submerged-charlottesville-ojs-div2.xlsm</t>
-  </si>
-  <si>
-    <t>2024-vadc-fll-challenge-submerged-fairfax-ojs-div2.xlsm</t>
-  </si>
-  <si>
-    <t>2024-vadc-fll-challenge-submerged-richmond-ojs-div2.xlsm</t>
-  </si>
-  <si>
-    <t>2024-vadc-fll-challenge-submerged-dc-mckinley-ojs-div2.xlsm</t>
-  </si>
-  <si>
-    <t>2024-vadc-fll-challenge-submerged-dc-friendship-ojs-div2.xlsm</t>
-  </si>
-  <si>
-    <t>2024-vadc-fll-challenge-submerged-ashburn-ojs-div2.xlsm</t>
-  </si>
-  <si>
-    <t>2024-vadc-fll-challenge-submerged-alexandria-ojs-div2.xlsm</t>
-  </si>
-  <si>
-    <t>2024-vadc-fll-challenge-submerged-stated2-ojs-div2.xlsm</t>
-  </si>
-  <si>
     <t>Newport_News</t>
   </si>
   <si>
@@ -3006,6 +2910,102 @@
   </si>
   <si>
     <t>Manassas_2</t>
+  </si>
+  <si>
+    <t>2024-vadc-fll-challenge-submerged-ojs-newport_news-div1.xlsm</t>
+  </si>
+  <si>
+    <t>2024-vadc-fll-challenge-submerged-ojs-newport_news-div2.xlsm</t>
+  </si>
+  <si>
+    <t>2024-vadc-fll-challenge-submerged-ojs-henrico-div1.xlsm</t>
+  </si>
+  <si>
+    <t>2024-vadc-fll-challenge-submerged-ojs-henrico-div2.xlsm</t>
+  </si>
+  <si>
+    <t>2024-vadc-fll-challenge-submerged-ojs-glen_allen-div1.xlsm</t>
+  </si>
+  <si>
+    <t>2024-vadc-fll-challenge-submerged-ojs-glen_allen-div2.xlsm</t>
+  </si>
+  <si>
+    <t>2024-vadc-fll-challenge-submerged-ojs-martinsville-div1.xlsm</t>
+  </si>
+  <si>
+    <t>2024-vadc-fll-challenge-submerged-ojs-martinsville-div2.xlsm</t>
+  </si>
+  <si>
+    <t>2024-vadc-fll-challenge-submerged-ojs-norfolk-div1.xlsm</t>
+  </si>
+  <si>
+    <t>2024-vadc-fll-challenge-submerged-ojs-norfolk-div2.xlsm</t>
+  </si>
+  <si>
+    <t>2024-vadc-fll-challenge-submerged-ojs-blacksburg-div1.xlsm</t>
+  </si>
+  <si>
+    <t>2024-vadc-fll-challenge-submerged-ojs-blacksburg-div2.xlsm</t>
+  </si>
+  <si>
+    <t>2024-vadc-fll-challenge-submerged-ojs-abingdon-div1.xlsm</t>
+  </si>
+  <si>
+    <t>2024-vadc-fll-challenge-submerged-ojs-abingdon-div2.xlsm</t>
+  </si>
+  <si>
+    <t>2024-vadc-fll-challenge-submerged-ojs-charlottesville-div1.xlsm</t>
+  </si>
+  <si>
+    <t>2024-vadc-fll-challenge-submerged-ojs-charlottesville-div2.xlsm</t>
+  </si>
+  <si>
+    <t>2024-vadc-fll-challenge-submerged-ojs-manassas_1-div1.xlsm</t>
+  </si>
+  <si>
+    <t>2024-vadc-fll-challenge-submerged-ojs-fairfax-div1.xlsm</t>
+  </si>
+  <si>
+    <t>2024-vadc-fll-challenge-submerged-ojs-fairfax-div2.xlsm</t>
+  </si>
+  <si>
+    <t>2024-vadc-fll-challenge-submerged-ojs-manassas_2-div1.xlsm</t>
+  </si>
+  <si>
+    <t>2024-vadc-fll-challenge-submerged-ojs-richmond-div1.xlsm</t>
+  </si>
+  <si>
+    <t>2024-vadc-fll-challenge-submerged-ojs-richmond-div2.xlsm</t>
+  </si>
+  <si>
+    <t>2024-vadc-fll-challenge-submerged-ojs-dc-mckinley-div1.xlsm</t>
+  </si>
+  <si>
+    <t>2024-vadc-fll-challenge-submerged-ojs-dc-mckinley-div2.xlsm</t>
+  </si>
+  <si>
+    <t>2024-vadc-fll-challenge-submerged-ojs-dc-friendship-div1.xlsm</t>
+  </si>
+  <si>
+    <t>2024-vadc-fll-challenge-submerged-ojs-dc-friendship-div2.xlsm</t>
+  </si>
+  <si>
+    <t>2024-vadc-fll-challenge-submerged-ojs-ashburn-div1.xlsm</t>
+  </si>
+  <si>
+    <t>2024-vadc-fll-challenge-submerged-ojs-ashburn-div2.xlsm</t>
+  </si>
+  <si>
+    <t>2024-vadc-fll-challenge-submerged-ojs-alexandria-div1.xlsm</t>
+  </si>
+  <si>
+    <t>2024-vadc-fll-challenge-submerged-ojs-alexandria-div2.xlsm</t>
+  </si>
+  <si>
+    <t>2024-vadc-fll-challenge-submerged-ojs-stated1-div1.xlsm</t>
+  </si>
+  <si>
+    <t>2024-vadc-fll-challenge-submerged-ojs-stated2-div2.xlsm</t>
   </si>
 </sst>
 </file>
@@ -4653,7 +4653,7 @@
   <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4803,7 +4803,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>985</v>
+        <v>953</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>33</v>
@@ -4812,10 +4812,10 @@
         <v>45605</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>953</v>
+        <v>957</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>970</v>
+        <v>958</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -4850,10 +4850,10 @@
         <v>45605</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>954</v>
+        <v>959</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>971</v>
+        <v>960</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
@@ -4879,7 +4879,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>986</v>
+        <v>954</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>35</v>
@@ -4888,10 +4888,10 @@
         <v>45605</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>955</v>
+        <v>961</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>972</v>
+        <v>962</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
@@ -4926,10 +4926,10 @@
         <v>45605</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>956</v>
+        <v>963</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>973</v>
+        <v>964</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
@@ -4964,10 +4964,10 @@
         <v>45612</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>957</v>
+        <v>965</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>974</v>
+        <v>966</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
@@ -5002,10 +5002,10 @@
         <v>45612</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>958</v>
+        <v>967</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>975</v>
+        <v>968</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
@@ -5040,10 +5040,10 @@
         <v>45612</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>959</v>
+        <v>969</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
@@ -5078,10 +5078,10 @@
         <v>45612</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>960</v>
+        <v>971</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="F15" s="1">
         <v>1</v>
@@ -5107,7 +5107,7 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>987</v>
+        <v>955</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>41</v>
@@ -5116,7 +5116,7 @@
         <v>45612</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>961</v>
+        <v>973</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1">
@@ -5152,10 +5152,10 @@
         <v>45612</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>962</v>
+        <v>974</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="F17" s="1">
         <v>1</v>
@@ -5181,7 +5181,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>988</v>
+        <v>956</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>43</v>
@@ -5190,7 +5190,7 @@
         <v>45613</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>963</v>
+        <v>976</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1">
@@ -5226,10 +5226,10 @@
         <v>45613</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>964</v>
+        <v>977</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F19" s="1">
         <v>1</v>
@@ -5264,7 +5264,7 @@
         <v>45619</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>965</v>
+        <v>979</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>980</v>
@@ -5302,10 +5302,10 @@
         <v>45619</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>966</v>
+        <v>981</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="F21" s="1">
         <v>1</v>
@@ -5340,10 +5340,10 @@
         <v>45620</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>967</v>
+        <v>983</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="F22" s="1">
         <v>1</v>
@@ -5378,10 +5378,10 @@
         <v>45620</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>968</v>
+        <v>985</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="F23" s="1">
         <v>1</v>
@@ -5416,7 +5416,7 @@
         <v>45633</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>969</v>
+        <v>987</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1">
@@ -5453,7 +5453,7 @@
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>984</v>
+        <v>988</v>
       </c>
       <c r="F25" s="1">
         <v>1</v>
@@ -5562,7 +5562,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>985</v>
+        <v>953</v>
       </c>
       <c r="B2" t="s">
         <v>929</v>
@@ -5674,7 +5674,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>986</v>
+        <v>954</v>
       </c>
       <c r="B4" t="s">
         <v>929</v>
@@ -6010,7 +6010,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>987</v>
+        <v>955</v>
       </c>
       <c r="B10" t="s">
         <v>929</v>
@@ -6122,7 +6122,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>988</v>
+        <v>956</v>
       </c>
       <c r="B12" t="s">
         <v>929</v>
@@ -6570,7 +6570,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>985</v>
+        <v>953</v>
       </c>
       <c r="B20" t="s">
         <v>930</v>
@@ -6682,7 +6682,7 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>986</v>
+        <v>954</v>
       </c>
       <c r="B22" t="s">
         <v>930</v>
@@ -7018,7 +7018,7 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>987</v>
+        <v>955</v>
       </c>
       <c r="B28" t="s">
         <v>930</v>
@@ -7130,7 +7130,7 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>988</v>
+        <v>956</v>
       </c>
       <c r="B30" t="s">
         <v>930</v>
@@ -7641,7 +7641,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>985</v>
+        <v>953</v>
       </c>
       <c r="B2">
         <v>37683</v>
@@ -7664,7 +7664,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>985</v>
+        <v>953</v>
       </c>
       <c r="B3">
         <v>38242</v>
@@ -7687,7 +7687,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>985</v>
+        <v>953</v>
       </c>
       <c r="B4">
         <v>51652</v>
@@ -7710,7 +7710,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>985</v>
+        <v>953</v>
       </c>
       <c r="B5">
         <v>53446</v>
@@ -7733,7 +7733,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>985</v>
+        <v>953</v>
       </c>
       <c r="B6">
         <v>53450</v>
@@ -7756,7 +7756,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>985</v>
+        <v>953</v>
       </c>
       <c r="B7">
         <v>57671</v>
@@ -7779,7 +7779,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>985</v>
+        <v>953</v>
       </c>
       <c r="B8">
         <v>60911</v>
@@ -7799,7 +7799,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>985</v>
+        <v>953</v>
       </c>
       <c r="B9">
         <v>65409</v>
@@ -7822,7 +7822,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>985</v>
+        <v>953</v>
       </c>
       <c r="B10">
         <v>65410</v>
@@ -7845,7 +7845,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>985</v>
+        <v>953</v>
       </c>
       <c r="B11">
         <v>66989</v>
@@ -7868,7 +7868,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>985</v>
+        <v>953</v>
       </c>
       <c r="B12">
         <v>68507</v>
@@ -7891,7 +7891,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>986</v>
+        <v>954</v>
       </c>
       <c r="B13">
         <v>1840</v>
@@ -7914,7 +7914,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>986</v>
+        <v>954</v>
       </c>
       <c r="B14">
         <v>31916</v>
@@ -7934,7 +7934,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>986</v>
+        <v>954</v>
       </c>
       <c r="B15">
         <v>59940</v>
@@ -7957,7 +7957,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>986</v>
+        <v>954</v>
       </c>
       <c r="B16">
         <v>63325</v>
@@ -7980,7 +7980,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>986</v>
+        <v>954</v>
       </c>
       <c r="B17">
         <v>68180</v>
@@ -9362,7 +9362,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>987</v>
+        <v>955</v>
       </c>
       <c r="B78">
         <v>2392</v>
@@ -9385,7 +9385,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>987</v>
+        <v>955</v>
       </c>
       <c r="B79">
         <v>6794</v>
@@ -9408,7 +9408,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>987</v>
+        <v>955</v>
       </c>
       <c r="B80">
         <v>8785</v>
@@ -9431,7 +9431,7 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>987</v>
+        <v>955</v>
       </c>
       <c r="B81">
         <v>10321</v>
@@ -9454,7 +9454,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>987</v>
+        <v>955</v>
       </c>
       <c r="B82">
         <v>10587</v>
@@ -9474,7 +9474,7 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>987</v>
+        <v>955</v>
       </c>
       <c r="B83">
         <v>12734</v>
@@ -9497,7 +9497,7 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>987</v>
+        <v>955</v>
       </c>
       <c r="B84">
         <v>18589</v>
@@ -9520,7 +9520,7 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>987</v>
+        <v>955</v>
       </c>
       <c r="B85">
         <v>20349</v>
@@ -9543,7 +9543,7 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>987</v>
+        <v>955</v>
       </c>
       <c r="B86">
         <v>27239</v>
@@ -9566,7 +9566,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>987</v>
+        <v>955</v>
       </c>
       <c r="B87">
         <v>31289</v>
@@ -9589,7 +9589,7 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>987</v>
+        <v>955</v>
       </c>
       <c r="B88">
         <v>35580</v>
@@ -9612,7 +9612,7 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>987</v>
+        <v>955</v>
       </c>
       <c r="B89">
         <v>37711</v>
@@ -9635,7 +9635,7 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>987</v>
+        <v>955</v>
       </c>
       <c r="B90">
         <v>39343</v>
@@ -9658,7 +9658,7 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>987</v>
+        <v>955</v>
       </c>
       <c r="B91">
         <v>47438</v>
@@ -9681,7 +9681,7 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>987</v>
+        <v>955</v>
       </c>
       <c r="B92">
         <v>49078</v>
@@ -9704,7 +9704,7 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>987</v>
+        <v>955</v>
       </c>
       <c r="B93">
         <v>51919</v>
@@ -9727,7 +9727,7 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>987</v>
+        <v>955</v>
       </c>
       <c r="B94">
         <v>53752</v>
@@ -9750,7 +9750,7 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>987</v>
+        <v>955</v>
       </c>
       <c r="B95">
         <v>53753</v>
@@ -9773,7 +9773,7 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>987</v>
+        <v>955</v>
       </c>
       <c r="B96">
         <v>53754</v>
@@ -9796,7 +9796,7 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>987</v>
+        <v>955</v>
       </c>
       <c r="B97">
         <v>53755</v>
@@ -9819,7 +9819,7 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>987</v>
+        <v>955</v>
       </c>
       <c r="B98">
         <v>60140</v>
@@ -9842,7 +9842,7 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>987</v>
+        <v>955</v>
       </c>
       <c r="B99">
         <v>60906</v>
@@ -9865,7 +9865,7 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>987</v>
+        <v>955</v>
       </c>
       <c r="B100">
         <v>60907</v>
@@ -9888,7 +9888,7 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>987</v>
+        <v>955</v>
       </c>
       <c r="B101">
         <v>61461</v>
@@ -9911,7 +9911,7 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>987</v>
+        <v>955</v>
       </c>
       <c r="B102">
         <v>61474</v>
@@ -9934,7 +9934,7 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>987</v>
+        <v>955</v>
       </c>
       <c r="B103">
         <v>62726</v>
@@ -9957,7 +9957,7 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>987</v>
+        <v>955</v>
       </c>
       <c r="B104">
         <v>63069</v>
@@ -9980,7 +9980,7 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>987</v>
+        <v>955</v>
       </c>
       <c r="B105">
         <v>64893</v>
@@ -10003,7 +10003,7 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>987</v>
+        <v>955</v>
       </c>
       <c r="B106">
         <v>65304</v>
@@ -10026,7 +10026,7 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>987</v>
+        <v>955</v>
       </c>
       <c r="B107">
         <v>69306</v>
@@ -10049,7 +10049,7 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>988</v>
+        <v>956</v>
       </c>
       <c r="B108">
         <v>954</v>
@@ -10072,7 +10072,7 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>988</v>
+        <v>956</v>
       </c>
       <c r="B109">
         <v>4421</v>
@@ -10095,7 +10095,7 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>988</v>
+        <v>956</v>
       </c>
       <c r="B110">
         <v>8503</v>
@@ -10118,7 +10118,7 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>988</v>
+        <v>956</v>
       </c>
       <c r="B111">
         <v>9251</v>
@@ -10141,7 +10141,7 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>988</v>
+        <v>956</v>
       </c>
       <c r="B112">
         <v>9978</v>
@@ -10164,7 +10164,7 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>988</v>
+        <v>956</v>
       </c>
       <c r="B113">
         <v>10157</v>
@@ -10187,7 +10187,7 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>988</v>
+        <v>956</v>
       </c>
       <c r="B114">
         <v>10159</v>
@@ -10210,7 +10210,7 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>988</v>
+        <v>956</v>
       </c>
       <c r="B115">
         <v>10957</v>
@@ -10233,7 +10233,7 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>988</v>
+        <v>956</v>
       </c>
       <c r="B116">
         <v>19992</v>
@@ -10256,7 +10256,7 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>988</v>
+        <v>956</v>
       </c>
       <c r="B117">
         <v>24317</v>
@@ -10279,7 +10279,7 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>988</v>
+        <v>956</v>
       </c>
       <c r="B118">
         <v>35481</v>
@@ -10302,7 +10302,7 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>988</v>
+        <v>956</v>
       </c>
       <c r="B119">
         <v>42657</v>
@@ -10325,7 +10325,7 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>988</v>
+        <v>956</v>
       </c>
       <c r="B120">
         <v>47296</v>
@@ -10348,7 +10348,7 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>988</v>
+        <v>956</v>
       </c>
       <c r="B121">
         <v>48342</v>
@@ -10371,7 +10371,7 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>988</v>
+        <v>956</v>
       </c>
       <c r="B122">
         <v>48747</v>
@@ -10394,7 +10394,7 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>988</v>
+        <v>956</v>
       </c>
       <c r="B123">
         <v>54339</v>
@@ -10417,7 +10417,7 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>988</v>
+        <v>956</v>
       </c>
       <c r="B124">
         <v>54416</v>
@@ -10440,7 +10440,7 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>988</v>
+        <v>956</v>
       </c>
       <c r="B125">
         <v>58854</v>
@@ -10463,7 +10463,7 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>988</v>
+        <v>956</v>
       </c>
       <c r="B126">
         <v>60205</v>
@@ -10486,7 +10486,7 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>988</v>
+        <v>956</v>
       </c>
       <c r="B127">
         <v>60272</v>
@@ -10509,7 +10509,7 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>988</v>
+        <v>956</v>
       </c>
       <c r="B128">
         <v>64960</v>
@@ -10532,7 +10532,7 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>988</v>
+        <v>956</v>
       </c>
       <c r="B129">
         <v>64965</v>
@@ -10555,7 +10555,7 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>988</v>
+        <v>956</v>
       </c>
       <c r="B130">
         <v>68869</v>
@@ -10575,7 +10575,7 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>988</v>
+        <v>956</v>
       </c>
       <c r="B131">
         <v>69117</v>
@@ -11775,7 +11775,7 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>985</v>
+        <v>953</v>
       </c>
       <c r="B185">
         <v>6348</v>
@@ -11798,7 +11798,7 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>985</v>
+        <v>953</v>
       </c>
       <c r="B186">
         <v>35054</v>
@@ -11821,7 +11821,7 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>985</v>
+        <v>953</v>
       </c>
       <c r="B187">
         <v>38238</v>
@@ -11844,7 +11844,7 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>985</v>
+        <v>953</v>
       </c>
       <c r="B188">
         <v>47030</v>
@@ -11867,7 +11867,7 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>985</v>
+        <v>953</v>
       </c>
       <c r="B189">
         <v>52367</v>
@@ -11890,7 +11890,7 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>985</v>
+        <v>953</v>
       </c>
       <c r="B190">
         <v>57675</v>
@@ -11910,7 +11910,7 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>985</v>
+        <v>953</v>
       </c>
       <c r="B191">
         <v>58638</v>
@@ -11933,7 +11933,7 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>985</v>
+        <v>953</v>
       </c>
       <c r="B192">
         <v>60463</v>
@@ -11956,7 +11956,7 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>985</v>
+        <v>953</v>
       </c>
       <c r="B193">
         <v>60679</v>
@@ -11979,7 +11979,7 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>985</v>
+        <v>953</v>
       </c>
       <c r="B194">
         <v>61072</v>
@@ -12002,7 +12002,7 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>985</v>
+        <v>953</v>
       </c>
       <c r="B195">
         <v>67160</v>
@@ -12025,7 +12025,7 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>986</v>
+        <v>954</v>
       </c>
       <c r="B196">
         <v>27850</v>
@@ -12048,7 +12048,7 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>986</v>
+        <v>954</v>
       </c>
       <c r="B197">
         <v>27851</v>
@@ -12071,7 +12071,7 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>986</v>
+        <v>954</v>
       </c>
       <c r="B198">
         <v>48466</v>
@@ -12094,7 +12094,7 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>986</v>
+        <v>954</v>
       </c>
       <c r="B199">
         <v>52087</v>
@@ -12117,7 +12117,7 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>986</v>
+        <v>954</v>
       </c>
       <c r="B200">
         <v>54506</v>
@@ -12140,7 +12140,7 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>986</v>
+        <v>954</v>
       </c>
       <c r="B201">
         <v>55751</v>
@@ -12163,7 +12163,7 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>986</v>
+        <v>954</v>
       </c>
       <c r="B202">
         <v>56130</v>
@@ -12183,7 +12183,7 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>986</v>
+        <v>954</v>
       </c>
       <c r="B203">
         <v>60386</v>
@@ -12203,7 +12203,7 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>986</v>
+        <v>954</v>
       </c>
       <c r="B204">
         <v>63323</v>
@@ -12226,7 +12226,7 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>986</v>
+        <v>954</v>
       </c>
       <c r="B205">
         <v>63324</v>
@@ -12249,7 +12249,7 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>986</v>
+        <v>954</v>
       </c>
       <c r="B206">
         <v>63326</v>
@@ -12272,7 +12272,7 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>986</v>
+        <v>954</v>
       </c>
       <c r="B207">
         <v>64912</v>
@@ -12295,7 +12295,7 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>986</v>
+        <v>954</v>
       </c>
       <c r="B208">
         <v>65937</v>
@@ -12318,7 +12318,7 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>986</v>
+        <v>954</v>
       </c>
       <c r="B209">
         <v>66016</v>
@@ -12341,7 +12341,7 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>986</v>
+        <v>954</v>
       </c>
       <c r="B210">
         <v>66242</v>
@@ -12364,7 +12364,7 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>986</v>
+        <v>954</v>
       </c>
       <c r="B211">
         <v>66409</v>
@@ -12384,7 +12384,7 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>986</v>
+        <v>954</v>
       </c>
       <c r="B212">
         <v>69263</v>

--- a/2024/2024-FLL-Qualifier-Tournaments.xlsx
+++ b/2024/2024-FLL-Qualifier-Tournaments.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github-projects\OJS_Script_maker_NG\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD61BB7-8E7F-423A-905A-5235DBE4DF7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26BDF39D-4998-4474-9006-D74CFBEF902B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{0852510A-0402-494B-87EA-4B91755641F1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{0852510A-0402-494B-87EA-4B91755641F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="9" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2052" uniqueCount="993">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2141" uniqueCount="1018">
   <si>
     <t>Volunteer</t>
   </si>
@@ -3019,6 +3019,81 @@
   </si>
   <si>
     <t>Value</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Test tournament for checking OJS functionalityu</t>
+  </si>
+  <si>
+    <t>2024-vadc-fll-challenge-submerged-ojs-test-div1.xlsm</t>
+  </si>
+  <si>
+    <t>2024-vadc-fll-challenge-submerged-ojs-test-div2.xlsm</t>
+  </si>
+  <si>
+    <t>D1 Test Champion</t>
+  </si>
+  <si>
+    <t>Unk</t>
+  </si>
+  <si>
+    <t>D1 Test Robot Design Winner</t>
+  </si>
+  <si>
+    <t>D1 Test Innovation Project Winner</t>
+  </si>
+  <si>
+    <t>D1 Test Core Values Winner</t>
+  </si>
+  <si>
+    <t>D1 Test Team Lowest Score</t>
+  </si>
+  <si>
+    <t>D1 Test Team 6</t>
+  </si>
+  <si>
+    <t>D1 Test Team 7</t>
+  </si>
+  <si>
+    <t>D1 Test Team 8</t>
+  </si>
+  <si>
+    <t>D1 Test Team 9</t>
+  </si>
+  <si>
+    <t>D1 Test Team 10</t>
+  </si>
+  <si>
+    <t>D2 Test Robot Design Winner</t>
+  </si>
+  <si>
+    <t>D2 Test Innovation Project Winner</t>
+  </si>
+  <si>
+    <t>D2 Test Core Values Winner</t>
+  </si>
+  <si>
+    <t>D2 Test Team Lowest Score</t>
+  </si>
+  <si>
+    <t>D2 Test Team 6</t>
+  </si>
+  <si>
+    <t>D2 Test Team 7</t>
+  </si>
+  <si>
+    <t>D2 Test Team 8</t>
+  </si>
+  <si>
+    <t>D2 Test Team 9</t>
+  </si>
+  <si>
+    <t>D2 Test Team 10</t>
+  </si>
+  <si>
+    <t>D2 Test Champion</t>
   </si>
 </sst>
 </file>
@@ -3078,7 +3153,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="41">
     <dxf>
       <font>
         <b val="0"/>
@@ -3422,6 +3497,20 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
@@ -3702,34 +3791,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F2C2782E-8D00-4650-88D9-CBAFC7F68F2F}" name="Summary" displayName="Summary" ref="A1:Q17" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
-  <autoFilter ref="A1:Q17" xr:uid="{BE3A572B-CA44-4747-B917-FCB04945D86D}"/>
-  <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{BF1F7E71-E66D-4B0C-89F9-16ABE7AA3A1D}" name="Item" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{D668F0F3-57FC-4961-897C-AEAADA4362DF}" name="Newport_News" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{0D9B86E2-CF98-40AA-AE69-31D927B8512D}" name="Henrico" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{23C8D6E7-CDEC-4B0A-A2FB-20309BE65D99}" name="Glen_Allen" dataDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{7D2B892A-A9F7-4E1F-A90C-EDFB5485B1AE}" name="Martinsville" dataDxfId="33"/>
-    <tableColumn id="6" xr3:uid="{8187554D-A12A-428A-A29B-8D92D08DABAE}" name="Norfolk" dataDxfId="32"/>
-    <tableColumn id="7" xr3:uid="{DD480F0C-B63E-4836-8615-3CBD1B456110}" name="Blacksburg" dataDxfId="31"/>
-    <tableColumn id="8" xr3:uid="{E55B54A1-2E1E-4E81-B861-1254ADE8C3C7}" name="Abingdon" dataDxfId="30"/>
-    <tableColumn id="9" xr3:uid="{F22D09BC-D7FE-45B8-B3AA-4A632D4F0531}" name="Charlottesville" dataDxfId="29"/>
-    <tableColumn id="10" xr3:uid="{7703ECD1-EFAA-4F63-9050-425B0B9A7A45}" name="Manassas_1" dataDxfId="28"/>
-    <tableColumn id="11" xr3:uid="{4286384C-47D1-4C43-897C-4839794136FF}" name="Fairfax" dataDxfId="27"/>
-    <tableColumn id="12" xr3:uid="{B50C72AA-6A79-402B-807E-793A9D5D98BA}" name="Manassas_2" dataDxfId="26"/>
-    <tableColumn id="13" xr3:uid="{60408385-DDF9-45CC-BF1F-54054F87E546}" name="Richmond" dataDxfId="25"/>
-    <tableColumn id="14" xr3:uid="{E7460837-F884-44D7-8EB3-95FB2CE2AC4A}" name="DC-McKinley" dataDxfId="24"/>
-    <tableColumn id="15" xr3:uid="{28672377-5931-492B-B0DB-D60F205A71D1}" name="DC-Friendship" dataDxfId="23"/>
-    <tableColumn id="16" xr3:uid="{DE2FA6CE-1FFD-4892-9A73-81E4AA8ECB84}" name="Ashburn" dataDxfId="22"/>
-    <tableColumn id="17" xr3:uid="{20F96C36-71C3-4737-9B8E-E6966F5E8BD5}" name="Alexandria" dataDxfId="21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F2C2782E-8D00-4650-88D9-CBAFC7F68F2F}" name="Summary" displayName="Summary" ref="A1:R17" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
+  <autoFilter ref="A1:R17" xr:uid="{BE3A572B-CA44-4747-B917-FCB04945D86D}"/>
+  <tableColumns count="18">
+    <tableColumn id="1" xr3:uid="{BF1F7E71-E66D-4B0C-89F9-16ABE7AA3A1D}" name="Item" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{D668F0F3-57FC-4961-897C-AEAADA4362DF}" name="Newport_News" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{0D9B86E2-CF98-40AA-AE69-31D927B8512D}" name="Henrico" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{23C8D6E7-CDEC-4B0A-A2FB-20309BE65D99}" name="Glen_Allen" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{7D2B892A-A9F7-4E1F-A90C-EDFB5485B1AE}" name="Martinsville" dataDxfId="34"/>
+    <tableColumn id="6" xr3:uid="{8187554D-A12A-428A-A29B-8D92D08DABAE}" name="Norfolk" dataDxfId="33"/>
+    <tableColumn id="7" xr3:uid="{DD480F0C-B63E-4836-8615-3CBD1B456110}" name="Blacksburg" dataDxfId="32"/>
+    <tableColumn id="8" xr3:uid="{E55B54A1-2E1E-4E81-B861-1254ADE8C3C7}" name="Abingdon" dataDxfId="31"/>
+    <tableColumn id="9" xr3:uid="{F22D09BC-D7FE-45B8-B3AA-4A632D4F0531}" name="Charlottesville" dataDxfId="30"/>
+    <tableColumn id="10" xr3:uid="{7703ECD1-EFAA-4F63-9050-425B0B9A7A45}" name="Manassas_1" dataDxfId="29"/>
+    <tableColumn id="11" xr3:uid="{4286384C-47D1-4C43-897C-4839794136FF}" name="Fairfax" dataDxfId="28"/>
+    <tableColumn id="12" xr3:uid="{B50C72AA-6A79-402B-807E-793A9D5D98BA}" name="Manassas_2" dataDxfId="27"/>
+    <tableColumn id="13" xr3:uid="{60408385-DDF9-45CC-BF1F-54054F87E546}" name="Richmond" dataDxfId="26"/>
+    <tableColumn id="14" xr3:uid="{E7460837-F884-44D7-8EB3-95FB2CE2AC4A}" name="DC-McKinley" dataDxfId="25"/>
+    <tableColumn id="15" xr3:uid="{28672377-5931-492B-B0DB-D60F205A71D1}" name="DC-Friendship" dataDxfId="24"/>
+    <tableColumn id="16" xr3:uid="{DE2FA6CE-1FFD-4892-9A73-81E4AA8ECB84}" name="Ashburn" dataDxfId="23"/>
+    <tableColumn id="17" xr3:uid="{20F96C36-71C3-4737-9B8E-E6966F5E8BD5}" name="Alexandria" dataDxfId="22"/>
+    <tableColumn id="18" xr3:uid="{B503E49C-2072-4A2D-8458-9F5C833A9CE4}" name="Test" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7B16C461-5BC9-4866-8279-89BA5266DF3D}" name="TournamentList" displayName="TournamentList" ref="A1:M17" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
-  <autoFilter ref="A1:M17" xr:uid="{7B16C461-5BC9-4866-8279-89BA5266DF3D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7B16C461-5BC9-4866-8279-89BA5266DF3D}" name="TournamentList" displayName="TournamentList" ref="A1:M18" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+  <autoFilter ref="A1:M18" xr:uid="{7B16C461-5BC9-4866-8279-89BA5266DF3D}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{41ADFF91-8737-40DB-B5BF-F1FE1207C8F3}" name="Short Name" dataDxfId="18"/>
     <tableColumn id="2" xr3:uid="{8C615F1E-6A8E-4D42-B4AF-FF0093E0EF5D}" name="Long Name" dataDxfId="17"/>
@@ -3752,8 +3842,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B6A06E95-68C8-4940-B680-2C0995F031C3}" name="AwardList" displayName="AwardList" ref="A1:U33" totalsRowShown="0">
-  <autoFilter ref="A1:U33" xr:uid="{B6A06E95-68C8-4940-B680-2C0995F031C3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B6A06E95-68C8-4940-B680-2C0995F031C3}" name="AwardList" displayName="AwardList" ref="A1:U35" totalsRowShown="0">
+  <autoFilter ref="A1:U35" xr:uid="{B6A06E95-68C8-4940-B680-2C0995F031C3}"/>
   <tableColumns count="21">
     <tableColumn id="1" xr3:uid="{13A1917A-5FA7-45FA-916C-27FE0F8E0A97}" name="Tournament"/>
     <tableColumn id="41" xr3:uid="{FD3155A7-7337-4CCF-8C34-CE92DA3A68FB}" name="Div"/>
@@ -3788,8 +3878,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{5245E064-699F-4B50-AC64-10C5360A5DC3}" name="Assignments" displayName="Assignments" ref="A1:H386" totalsRowShown="0">
-  <autoFilter ref="A1:H386" xr:uid="{5245E064-699F-4B50-AC64-10C5360A5DC3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{5245E064-699F-4B50-AC64-10C5360A5DC3}" name="Assignments" displayName="Assignments" ref="A1:H406" totalsRowShown="0">
+  <autoFilter ref="A1:H406" xr:uid="{5245E064-699F-4B50-AC64-10C5360A5DC3}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H386">
     <sortCondition ref="F1:F386"/>
   </sortState>
@@ -4135,10 +4225,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F420C16-759B-4D97-9825-4887115BA2E4}">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4162,7 +4252,7 @@
     <col min="17" max="17" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -4214,8 +4304,11 @@
       <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R1" s="1" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>983</v>
       </c>
@@ -4283,8 +4376,12 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R2" s="1">
+        <f t="shared" ref="R2" si="1">SUM(R3:R4)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>984</v>
       </c>
@@ -4352,8 +4449,12 @@
         <f>COUNTIFS(Assignments[Tournament],Q1,Assignments[Div],"D1")</f>
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R3" s="1">
+        <f>COUNTIFS(Assignments[Tournament],R1,Assignments[Div],"D1")</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>985</v>
       </c>
@@ -4421,8 +4522,12 @@
         <f>COUNTIFS(Assignments[Tournament],Q1,Assignments[Div],"D2")</f>
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R4" s="1">
+        <f>COUNTIFS(Assignments[Tournament],R1,Assignments[Div],"D2")</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>986</v>
       </c>
@@ -4490,8 +4595,12 @@
         <f>VLOOKUP(Summary[[#Headers],[Alexandria]],TournamentList[],12,0)</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R5" s="1">
+        <f>VLOOKUP(Summary[[#Headers],[Test]],TournamentList[],12,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>987</v>
       </c>
@@ -4543,8 +4652,11 @@
       <c r="Q6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>974</v>
       </c>
@@ -4612,8 +4724,12 @@
         <f>SUMIFS(AwardList[[JudgedAwards]:[JudgedAwards]],AwardList[[Tournament]:[Tournament]],Summary[[#Headers],[Alexandria]],AwardList[[Div]:[Div]],"D1")</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R7" s="1">
+        <f>SUMIFS(AwardList[[JudgedAwards]:[JudgedAwards]],AwardList[[Tournament]:[Tournament]],Summary[[#Headers],[Test]],AwardList[[Div]:[Div]],"D1")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>975</v>
       </c>
@@ -4681,8 +4797,12 @@
         <f>SUMIFS(AwardList[[JudgedAwards]:[JudgedAwards]],AwardList[[Tournament]:[Tournament]],Summary[[#Headers],[Alexandria]],AwardList[[Div]:[Div]],"D2")</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R8" s="1">
+        <f>SUMIFS(AwardList[[JudgedAwards]:[JudgedAwards]],AwardList[[Tournament]:[Tournament]],Summary[[#Headers],[Test]],AwardList[[Div]:[Div]],"D2")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>978</v>
       </c>
@@ -4750,8 +4870,12 @@
         <f>SUMIFS(AwardList[[PerfAwards]:[PerfAwards]],AwardList[[Tournament]:[Tournament]],Summary[[#Headers],[Alexandria]],AwardList[[Div]:[Div]],"D1")</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R9" s="1">
+        <f>SUMIFS(AwardList[[PerfAwards]:[PerfAwards]],AwardList[[Tournament]:[Tournament]],Summary[[#Headers],[Test]],AwardList[[Div]:[Div]],"D1")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>979</v>
       </c>
@@ -4819,8 +4943,12 @@
         <f>SUMIFS(AwardList[[PerfAwards]:[PerfAwards]],AwardList[[Tournament]:[Tournament]],Summary[[#Headers],[Alexandria]],AwardList[[Div]:[Div]],"D2")</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R10" s="1">
+        <f>SUMIFS(AwardList[[PerfAwards]:[PerfAwards]],AwardList[[Tournament]:[Tournament]],Summary[[#Headers],[Test]],AwardList[[Div]:[Div]],"D2")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>981</v>
       </c>
@@ -4829,67 +4957,71 @@
         <v>7</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" ref="C11:Q11" si="1">C7+C9</f>
+        <f t="shared" ref="C11:Q11" si="2">C7+C9</f>
         <v>6</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="L11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="M11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="N11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="O11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="P11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="Q11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R11" s="1">
+        <f t="shared" ref="R11" si="3">R7+R9</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>982</v>
       </c>
@@ -4898,67 +5030,71 @@
         <v>7</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" ref="C12:Q12" si="2">C8+C10</f>
+        <f t="shared" ref="C12:Q12" si="4">C8+C10</f>
         <v>6</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="L12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="N12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="O12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="P12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="Q12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R12" s="1">
+        <f t="shared" ref="R12" si="5">R8+R10</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>990</v>
       </c>
@@ -4967,67 +5103,71 @@
         <v>16</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" ref="C13:Q13" si="3">C5+C6+C11+C12</f>
+        <f t="shared" ref="C13:Q13" si="6">C5+C6+C11+C12</f>
         <v>14</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="L13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="M13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="N13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="O13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="P13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="Q13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R13" s="1">
+        <f t="shared" ref="R13" si="7">R5+R6+R11+R12</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>980</v>
       </c>
@@ -5036,67 +5176,71 @@
         <v>0.5</v>
       </c>
       <c r="C14" s="3">
-        <f t="shared" ref="C14:Q14" si="4">(C5+C7+C8)/C2</f>
+        <f t="shared" ref="C14:Q14" si="8">(C5+C7+C8)/C2</f>
         <v>0.5625</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.54545454545454541</v>
       </c>
       <c r="E14" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="F14" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.52631578947368418</v>
       </c>
       <c r="G14" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.69230769230769229</v>
       </c>
       <c r="H14" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
       <c r="I14" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
       <c r="J14" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.43333333333333335</v>
       </c>
       <c r="K14" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.52380952380952384</v>
       </c>
       <c r="L14" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.45833333333333331</v>
       </c>
       <c r="M14" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
       <c r="N14" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.47619047619047616</v>
       </c>
       <c r="O14" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.54545454545454541</v>
       </c>
       <c r="P14" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.41666666666666669</v>
       </c>
       <c r="Q14" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.42553191489361702</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R14" s="3">
+        <f t="shared" ref="R14" si="9">(R5+R7+R8)/R2</f>
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>988</v>
       </c>
@@ -5105,67 +5249,71 @@
         <v>0.45454545454545453</v>
       </c>
       <c r="C15" s="3">
-        <f t="shared" ref="C15:Q15" si="5">(C7)/C3</f>
+        <f t="shared" ref="C15:Q15" si="10">(C7)/C3</f>
         <v>0.5</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.8</v>
       </c>
       <c r="E15" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.55555555555555558</v>
       </c>
       <c r="F15" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.45454545454545453</v>
       </c>
       <c r="G15" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H15" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.38461538461538464</v>
       </c>
       <c r="I15" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="J15" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.3</v>
       </c>
       <c r="K15" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.55555555555555558</v>
       </c>
       <c r="L15" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="M15" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.41666666666666669</v>
       </c>
       <c r="N15" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
       <c r="O15" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="P15" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.3125</v>
       </c>
       <c r="Q15" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.38461538461538464</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R15" s="3">
+        <f t="shared" ref="R15" si="11">(R7)/R3</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>989</v>
       </c>
@@ -5174,67 +5322,71 @@
         <v>0.54545454545454541</v>
       </c>
       <c r="C16" s="3">
-        <f t="shared" ref="C16:Q16" si="6">(C8+C5)/C4</f>
+        <f t="shared" ref="C16:Q16" si="12">(C8+C5)/C4</f>
         <v>0.625</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.47058823529411764</v>
       </c>
       <c r="E16" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.54545454545454541</v>
       </c>
       <c r="F16" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.625</v>
       </c>
       <c r="G16" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.55555555555555558</v>
       </c>
       <c r="H16" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.63636363636363635</v>
       </c>
       <c r="I16" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.44444444444444442</v>
       </c>
       <c r="J16" s="3" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K16" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
       <c r="L16" s="3" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M16" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.58333333333333337</v>
       </c>
       <c r="N16" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.46153846153846156</v>
       </c>
       <c r="O16" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.44444444444444442</v>
       </c>
       <c r="P16" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
       <c r="Q16" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.44117647058823528</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R16" s="3">
+        <f t="shared" ref="R16" si="13">(R8+R5)/R4</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
@@ -5301,6 +5453,10 @@
       <c r="Q17" s="1">
         <f>SUMIFS(Assignments[Mem],Assignments[Tournament],Q1)</f>
         <v>275</v>
+      </c>
+      <c r="R17" s="1">
+        <f>SUMIFS(Assignments[Mem],Assignments[Tournament],R1)</f>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -5313,9 +5469,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A41AF0E-5A5F-4597-97F4-A7EE3962C247}">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6039,6 +6197,48 @@
         <v>1</v>
       </c>
     </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="C18" s="2">
+        <v>45620</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <f>SUM(TournamentList[[#This Row],[Judges_1]:[Judges_6]])</f>
+        <v>1</v>
+      </c>
+      <c r="M18" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6050,10 +6250,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0B7B0F1-8C69-412F-8013-AD404FAFA062}">
-  <dimension ref="A1:U33"/>
+  <dimension ref="A1:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:U1"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8310,6 +8510,142 @@
         <v>12</v>
       </c>
     </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>993</v>
+      </c>
+      <c r="B34" t="s">
+        <v>914</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>2</v>
+      </c>
+      <c r="S34">
+        <f>SUM(AwardList[[#This Row],[Champ1]:[CV3]])</f>
+        <v>4</v>
+      </c>
+      <c r="T34">
+        <f>SUM(AwardList[[#This Row],[RG1]:[RG3]])</f>
+        <v>1</v>
+      </c>
+      <c r="U34">
+        <f>SUM(AwardList[[#This Row],[JudgedAwards]:[PerfAwards]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>993</v>
+      </c>
+      <c r="B35" t="s">
+        <v>915</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>2</v>
+      </c>
+      <c r="S35">
+        <f>SUM(AwardList[[#This Row],[Champ1]:[CV3]])</f>
+        <v>4</v>
+      </c>
+      <c r="T35">
+        <f>SUM(AwardList[[#This Row],[RG1]:[RG3]])</f>
+        <v>1</v>
+      </c>
+      <c r="U35">
+        <f>SUM(AwardList[[#This Row],[JudgedAwards]:[PerfAwards]])</f>
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8321,9 +8657,9 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5F33531E-FAA8-4BF0-AF51-C776C4E22994}">
           <x14:formula1>
-            <xm:f>Tournaments!$A$2:$A$17</xm:f>
+            <xm:f>Tournaments!$A$2:$A$30</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A33</xm:sqref>
+          <xm:sqref>A2:A35</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8333,9 +8669,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F76FCFD-7913-48E7-8A1D-892F3A9B6B36}">
-  <dimension ref="A1:H386"/>
+  <dimension ref="A1:H406"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A357" workbookViewId="0">
+      <selection activeCell="B397" sqref="B397"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16992,6 +17330,406 @@
         <v>3</v>
       </c>
     </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>993</v>
+      </c>
+      <c r="B387">
+        <v>1</v>
+      </c>
+      <c r="C387" t="s">
+        <v>997</v>
+      </c>
+      <c r="D387" t="s">
+        <v>998</v>
+      </c>
+      <c r="F387" t="s">
+        <v>914</v>
+      </c>
+      <c r="G387">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>993</v>
+      </c>
+      <c r="B388">
+        <v>2</v>
+      </c>
+      <c r="C388" t="s">
+        <v>999</v>
+      </c>
+      <c r="D388" t="s">
+        <v>998</v>
+      </c>
+      <c r="F388" t="s">
+        <v>914</v>
+      </c>
+      <c r="G388">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>993</v>
+      </c>
+      <c r="B389">
+        <v>3</v>
+      </c>
+      <c r="C389" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D389" t="s">
+        <v>998</v>
+      </c>
+      <c r="F389" t="s">
+        <v>914</v>
+      </c>
+      <c r="G389">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>993</v>
+      </c>
+      <c r="B390">
+        <v>4</v>
+      </c>
+      <c r="C390" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D390" t="s">
+        <v>998</v>
+      </c>
+      <c r="F390" t="s">
+        <v>914</v>
+      </c>
+      <c r="G390">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>993</v>
+      </c>
+      <c r="B391">
+        <v>5</v>
+      </c>
+      <c r="C391" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D391" t="s">
+        <v>998</v>
+      </c>
+      <c r="F391" t="s">
+        <v>914</v>
+      </c>
+      <c r="G391">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>993</v>
+      </c>
+      <c r="B392">
+        <v>6</v>
+      </c>
+      <c r="C392" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D392" t="s">
+        <v>998</v>
+      </c>
+      <c r="F392" t="s">
+        <v>914</v>
+      </c>
+      <c r="G392">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>993</v>
+      </c>
+      <c r="B393">
+        <v>7</v>
+      </c>
+      <c r="C393" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D393" t="s">
+        <v>998</v>
+      </c>
+      <c r="F393" t="s">
+        <v>914</v>
+      </c>
+      <c r="G393">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>993</v>
+      </c>
+      <c r="B394">
+        <v>8</v>
+      </c>
+      <c r="C394" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D394" t="s">
+        <v>998</v>
+      </c>
+      <c r="F394" t="s">
+        <v>914</v>
+      </c>
+      <c r="G394">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>993</v>
+      </c>
+      <c r="B395">
+        <v>9</v>
+      </c>
+      <c r="C395" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D395" t="s">
+        <v>998</v>
+      </c>
+      <c r="F395" t="s">
+        <v>914</v>
+      </c>
+      <c r="G395">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>993</v>
+      </c>
+      <c r="B396">
+        <v>10</v>
+      </c>
+      <c r="C396" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D396" t="s">
+        <v>998</v>
+      </c>
+      <c r="F396" t="s">
+        <v>914</v>
+      </c>
+      <c r="G396">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>993</v>
+      </c>
+      <c r="B397">
+        <v>11</v>
+      </c>
+      <c r="C397" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D397" t="s">
+        <v>998</v>
+      </c>
+      <c r="F397" t="s">
+        <v>915</v>
+      </c>
+      <c r="G397">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>993</v>
+      </c>
+      <c r="B398">
+        <v>12</v>
+      </c>
+      <c r="C398" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D398" t="s">
+        <v>998</v>
+      </c>
+      <c r="F398" t="s">
+        <v>915</v>
+      </c>
+      <c r="G398">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>993</v>
+      </c>
+      <c r="B399">
+        <v>13</v>
+      </c>
+      <c r="C399" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D399" t="s">
+        <v>998</v>
+      </c>
+      <c r="F399" t="s">
+        <v>915</v>
+      </c>
+      <c r="G399">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>993</v>
+      </c>
+      <c r="B400">
+        <v>14</v>
+      </c>
+      <c r="C400" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D400" t="s">
+        <v>998</v>
+      </c>
+      <c r="F400" t="s">
+        <v>915</v>
+      </c>
+      <c r="G400">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>993</v>
+      </c>
+      <c r="B401">
+        <v>15</v>
+      </c>
+      <c r="C401" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D401" t="s">
+        <v>998</v>
+      </c>
+      <c r="F401" t="s">
+        <v>915</v>
+      </c>
+      <c r="G401">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>993</v>
+      </c>
+      <c r="B402">
+        <v>16</v>
+      </c>
+      <c r="C402" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D402" t="s">
+        <v>998</v>
+      </c>
+      <c r="F402" t="s">
+        <v>915</v>
+      </c>
+      <c r="G402">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>993</v>
+      </c>
+      <c r="B403">
+        <v>17</v>
+      </c>
+      <c r="C403" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D403" t="s">
+        <v>998</v>
+      </c>
+      <c r="F403" t="s">
+        <v>915</v>
+      </c>
+      <c r="G403">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>993</v>
+      </c>
+      <c r="B404">
+        <v>18</v>
+      </c>
+      <c r="C404" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D404" t="s">
+        <v>998</v>
+      </c>
+      <c r="F404" t="s">
+        <v>915</v>
+      </c>
+      <c r="G404">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>993</v>
+      </c>
+      <c r="B405">
+        <v>19</v>
+      </c>
+      <c r="C405" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D405" t="s">
+        <v>998</v>
+      </c>
+      <c r="F405" t="s">
+        <v>915</v>
+      </c>
+      <c r="G405">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>993</v>
+      </c>
+      <c r="B406">
+        <v>20</v>
+      </c>
+      <c r="C406" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D406" t="s">
+        <v>998</v>
+      </c>
+      <c r="F406" t="s">
+        <v>915</v>
+      </c>
+      <c r="G406">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -17002,9 +17740,9 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{65BFDCB2-0FDF-4075-86B7-8EAF85F98A92}">
           <x14:formula1>
-            <xm:f>Tournaments!$A$2:$A$17</xm:f>
+            <xm:f>Tournaments!$A$2:$A$30</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A386</xm:sqref>
+          <xm:sqref>A2:A406</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
